--- a/002. Input Tables/project_plan.xlsx
+++ b/002. Input Tables/project_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heinz365-my.sharepoint.com/personal/humberto_consoloholanda_kraftheinz_com/Documents/Documents/GitHub/MSDS460-Assignment_02_/002. Input Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87905A7B-6DAA-40F2-8729-BA8E99DB279F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="8_{87905A7B-6DAA-40F2-8729-BA8E99DB279F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38E3CF8C-31C5-4F24-9918-A09D506FD0E1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2F3D29FD-3600-47DA-87DC-C635DFB0C1D9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
   <si>
     <t>taskID</t>
   </si>
@@ -616,7 +616,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,6 +720,18 @@
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
       <c r="L2">
         <v>60</v>
       </c>
@@ -764,6 +776,18 @@
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
       <c r="L3">
         <v>60</v>
       </c>
@@ -811,6 +835,18 @@
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
       <c r="L4">
         <v>60</v>
       </c>
@@ -843,10 +879,31 @@
       <c r="B5" t="s">
         <v>26</v>
       </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
       <c r="D5">
         <v>0</v>
       </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
       <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
@@ -882,7 +939,7 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>40</v>
@@ -1014,8 +1071,14 @@
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
       <c r="I8">
         <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1064,6 +1127,21 @@
       <c r="F9">
         <v>0</v>
       </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
       <c r="L9">
         <v>60</v>
       </c>
@@ -1108,8 +1186,20 @@
       <c r="F10">
         <v>300</v>
       </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
       <c r="H10">
         <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
       </c>
       <c r="L10">
         <v>60</v>
@@ -1155,8 +1245,20 @@
       <c r="F11">
         <v>180</v>
       </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
       <c r="I11">
         <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
       </c>
       <c r="L11">
         <v>60</v>
@@ -1202,8 +1304,20 @@
       <c r="F12">
         <v>120</v>
       </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
       <c r="J12">
         <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
       </c>
       <c r="L12">
         <v>60</v>
@@ -1249,6 +1363,18 @@
       <c r="F13">
         <v>160</v>
       </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
       <c r="K13">
         <v>1</v>
       </c>
@@ -1296,6 +1422,21 @@
       <c r="F14">
         <v>0</v>
       </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
       <c r="L14">
         <v>60</v>
       </c>
@@ -1399,11 +1540,17 @@
       <c r="F16">
         <v>80</v>
       </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
         <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1461,6 +1608,9 @@
       <c r="I17">
         <v>1</v>
       </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
       <c r="K17">
         <v>1</v>
       </c>
@@ -1570,6 +1720,18 @@
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
       <c r="L19">
         <v>60</v>
       </c>
@@ -1617,6 +1779,18 @@
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
       <c r="L20">
         <v>60</v>
       </c>
@@ -1664,6 +1838,18 @@
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
       <c r="L21">
         <v>60</v>
       </c>
@@ -1710,6 +1896,18 @@
       </c>
       <c r="G22">
         <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
       </c>
       <c r="L22">
         <v>60</v>

--- a/002. Input Tables/project_plan.xlsx
+++ b/002. Input Tables/project_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heinz365-my.sharepoint.com/personal/humberto_consoloholanda_kraftheinz_com/Documents/Documents/GitHub/MSDS460-Assignment_02_/002. Input Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="8_{87905A7B-6DAA-40F2-8729-BA8E99DB279F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38E3CF8C-31C5-4F24-9918-A09D506FD0E1}"/>
+  <xr:revisionPtr revIDLastSave="103" documentId="8_{87905A7B-6DAA-40F2-8729-BA8E99DB279F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04EA4366-387F-4FF9-A5BF-B866D27164AC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2F3D29FD-3600-47DA-87DC-C635DFB0C1D9}"/>
   </bookViews>
@@ -275,8 +275,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -615,9 +618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E2EAB6-9CFD-43EC-BA79-9E65411313FE}">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -709,13 +710,13 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>20</v>
       </c>
       <c r="F2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -739,12 +740,15 @@
         <v>1</v>
       </c>
       <c r="N2">
+        <f>E2*L2*M2</f>
         <v>1200</v>
       </c>
       <c r="O2">
+        <f>G2*L2*E2</f>
         <v>1200</v>
       </c>
       <c r="P2">
+        <f>SUM(H2:K2)*L2*E2</f>
         <v>0</v>
       </c>
       <c r="Q2">
@@ -765,13 +769,13 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E3">
         <v>40</v>
       </c>
       <c r="F3">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -795,12 +799,15 @@
         <v>1</v>
       </c>
       <c r="N3">
+        <f t="shared" ref="N3:N22" si="0">E3*L3*M3</f>
         <v>2400</v>
       </c>
       <c r="O3">
+        <f t="shared" ref="O3:O22" si="1">G3*L3*E3</f>
         <v>2400</v>
       </c>
       <c r="P3">
+        <f t="shared" ref="P3:P22" si="2">SUM(H3:K3)*L3*E3</f>
         <v>0</v>
       </c>
       <c r="Q3">
@@ -824,13 +831,13 @@
         <v>19</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>20</v>
       </c>
       <c r="F4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -854,12 +861,15 @@
         <v>1</v>
       </c>
       <c r="N4">
+        <f t="shared" si="0"/>
         <v>1200</v>
       </c>
       <c r="O4">
+        <f t="shared" si="1"/>
         <v>1200</v>
       </c>
       <c r="P4">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q4">
@@ -913,12 +923,15 @@
         <v>0</v>
       </c>
       <c r="N5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P5">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q5">
@@ -972,12 +985,15 @@
         <v>5</v>
       </c>
       <c r="N6">
+        <f t="shared" si="0"/>
         <v>12000</v>
       </c>
       <c r="O6">
+        <f t="shared" si="1"/>
         <v>2400</v>
       </c>
       <c r="P6">
+        <f t="shared" si="2"/>
         <v>9600</v>
       </c>
       <c r="Q6">
@@ -1031,12 +1047,15 @@
         <v>5</v>
       </c>
       <c r="N7">
+        <f t="shared" si="0"/>
         <v>12000</v>
       </c>
       <c r="O7">
+        <f t="shared" si="1"/>
         <v>2400</v>
       </c>
       <c r="P7">
+        <f t="shared" si="2"/>
         <v>9600</v>
       </c>
       <c r="Q7">
@@ -1090,12 +1109,15 @@
         <v>3</v>
       </c>
       <c r="N8">
+        <f t="shared" si="0"/>
         <v>7200</v>
       </c>
       <c r="O8">
+        <f t="shared" si="1"/>
         <v>2400</v>
       </c>
       <c r="P8">
+        <f t="shared" si="2"/>
         <v>4800</v>
       </c>
       <c r="Q8">
@@ -1112,7 +1134,7 @@
       <c r="A9" t="s">
         <v>33</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C9" t="s">
@@ -1149,12 +1171,15 @@
         <v>0</v>
       </c>
       <c r="N9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O9">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P9">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q9">
@@ -1178,7 +1203,7 @@
         <v>33</v>
       </c>
       <c r="D10">
-        <v>112.5</v>
+        <v>130</v>
       </c>
       <c r="E10">
         <v>150</v>
@@ -1208,12 +1233,15 @@
         <v>1</v>
       </c>
       <c r="N10">
+        <f t="shared" si="0"/>
         <v>9000</v>
       </c>
       <c r="O10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P10">
+        <f t="shared" si="2"/>
         <v>9000</v>
       </c>
       <c r="Q10">
@@ -1237,13 +1265,13 @@
         <v>33</v>
       </c>
       <c r="D11">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="E11">
         <v>180</v>
       </c>
       <c r="F11">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1267,12 +1295,15 @@
         <v>1</v>
       </c>
       <c r="N11">
+        <f t="shared" si="0"/>
         <v>10800</v>
       </c>
       <c r="O11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P11">
+        <f t="shared" si="2"/>
         <v>10800</v>
       </c>
       <c r="Q11">
@@ -1326,12 +1357,15 @@
         <v>1</v>
       </c>
       <c r="N12">
+        <f t="shared" si="0"/>
         <v>4800</v>
       </c>
       <c r="O12">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P12">
+        <f t="shared" si="2"/>
         <v>4800</v>
       </c>
       <c r="Q12">
@@ -1355,13 +1389,13 @@
         <v>33</v>
       </c>
       <c r="D13">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="E13">
         <v>160</v>
       </c>
       <c r="F13">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1385,12 +1419,15 @@
         <v>1</v>
       </c>
       <c r="N13">
+        <f t="shared" si="0"/>
         <v>9600</v>
       </c>
       <c r="O13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P13">
+        <f t="shared" si="2"/>
         <v>9600</v>
       </c>
       <c r="Q13">
@@ -1407,7 +1444,7 @@
       <c r="A14" t="s">
         <v>44</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C14" t="s">
@@ -1444,12 +1481,15 @@
         <v>0</v>
       </c>
       <c r="N14">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O14">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P14">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q14">
@@ -1473,13 +1513,13 @@
         <v>44</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <v>20</v>
       </c>
       <c r="F15">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1503,12 +1543,15 @@
         <v>5</v>
       </c>
       <c r="N15">
+        <f t="shared" si="0"/>
         <v>6000</v>
       </c>
       <c r="O15">
+        <f t="shared" si="1"/>
         <v>1200</v>
       </c>
       <c r="P15">
+        <f t="shared" si="2"/>
         <v>4800</v>
       </c>
       <c r="Q15">
@@ -1538,7 +1581,7 @@
         <v>40</v>
       </c>
       <c r="F16">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1562,12 +1605,15 @@
         <v>3</v>
       </c>
       <c r="N16">
+        <f t="shared" si="0"/>
         <v>7200</v>
       </c>
       <c r="O16">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P16">
+        <f t="shared" si="2"/>
         <v>7200</v>
       </c>
       <c r="Q16">
@@ -1597,7 +1643,7 @@
         <v>40</v>
       </c>
       <c r="F17">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1621,12 +1667,15 @@
         <v>4</v>
       </c>
       <c r="N17">
+        <f t="shared" si="0"/>
         <v>9600</v>
       </c>
       <c r="O17">
+        <f t="shared" si="1"/>
         <v>2400</v>
       </c>
       <c r="P17">
+        <f t="shared" si="2"/>
         <v>7200</v>
       </c>
       <c r="Q17">
@@ -1650,13 +1699,13 @@
         <v>55</v>
       </c>
       <c r="D18">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>20</v>
       </c>
       <c r="F18">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1680,12 +1729,15 @@
         <v>5</v>
       </c>
       <c r="N18">
+        <f t="shared" si="0"/>
         <v>6000</v>
       </c>
       <c r="O18">
+        <f t="shared" si="1"/>
         <v>1200</v>
       </c>
       <c r="P18">
+        <f t="shared" si="2"/>
         <v>4800</v>
       </c>
       <c r="Q18">
@@ -1709,13 +1761,13 @@
         <v>58</v>
       </c>
       <c r="D19">
-        <v>22.5</v>
+        <v>28</v>
       </c>
       <c r="E19">
         <v>30</v>
       </c>
       <c r="F19">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1739,12 +1791,15 @@
         <v>1</v>
       </c>
       <c r="N19">
+        <f t="shared" si="0"/>
         <v>1800</v>
       </c>
       <c r="O19">
+        <f t="shared" si="1"/>
         <v>1800</v>
       </c>
       <c r="P19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q19">
@@ -1768,13 +1823,13 @@
         <v>61</v>
       </c>
       <c r="D20">
-        <v>11.25</v>
+        <v>13</v>
       </c>
       <c r="E20">
         <v>15</v>
       </c>
       <c r="F20">
-        <v>22.5</v>
+        <v>17</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1798,12 +1853,15 @@
         <v>1</v>
       </c>
       <c r="N20">
+        <f t="shared" si="0"/>
         <v>900</v>
       </c>
       <c r="O20">
+        <f t="shared" si="1"/>
         <v>900</v>
       </c>
       <c r="P20">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q20">
@@ -1827,13 +1885,13 @@
         <v>64</v>
       </c>
       <c r="D21">
-        <v>22.5</v>
+        <v>28</v>
       </c>
       <c r="E21">
         <v>30</v>
       </c>
       <c r="F21">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1857,12 +1915,15 @@
         <v>1</v>
       </c>
       <c r="N21">
+        <f t="shared" si="0"/>
         <v>1800</v>
       </c>
       <c r="O21">
+        <f t="shared" si="1"/>
         <v>1800</v>
       </c>
       <c r="P21">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q21">
@@ -1886,13 +1947,13 @@
         <v>67</v>
       </c>
       <c r="D22">
-        <v>11.25</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>15</v>
       </c>
       <c r="F22">
-        <v>22.5</v>
+        <v>20</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1916,12 +1977,15 @@
         <v>1</v>
       </c>
       <c r="N22">
+        <f t="shared" si="0"/>
         <v>900</v>
       </c>
       <c r="O22">
+        <f t="shared" si="1"/>
         <v>900</v>
       </c>
       <c r="P22">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q22">
